--- a/OSHA_Form_300_Filled.xlsx
+++ b/OSHA_Form_300_Filled.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <r>
       <t xml:space="preserve">Attention:</t>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>06/18</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
   <si>
     <t xml:space="preserve">Page totals    </t>
@@ -1940,22 +1949,38 @@
       <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="21">
+      <c r="A26" s="70">
         <v>2</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70" t="s">
+        <v>65</v>
+      </c>
       <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="H26" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="K26" s="27">
+        <v>4</v>
+      </c>
+      <c r="L26" s="27">
+        <v>0</v>
+      </c>
       <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="N26" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -2144,7 +2169,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="84"/>
       <c r="F35" s="30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G35" s="31">
         <f>COUNTIF(G25:G34,"=x")</f>
@@ -2152,7 +2177,7 @@
       </c>
       <c r="H35" s="32">
         <f>COUNTIF(H25:H34,"=x")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="32">
         <f>COUNTIF(I25:I34,"=x")</f>
@@ -2164,7 +2189,7 @@
       </c>
       <c r="K35" s="33">
         <f>SUM(K25:K34)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" s="33">
         <f>SUM(L25:L34)</f>
@@ -2176,7 +2201,7 @@
       </c>
       <c r="N35" s="32">
         <f>COUNTIF(N25:N34,"=x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="32">
         <f>COUNTIF(O25:O34,"=x")</f>
@@ -2222,7 +2247,7 @@
       <c r="D37" s="94"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G37" s="95"/>
       <c r="H37" s="95"/>
@@ -2271,7 +2296,7 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B39" s="97"/>
       <c r="C39" s="97"/>
@@ -2362,10 +2387,10 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>52</v>
@@ -7439,7 +7464,7 @@
         <v>148</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7447,7 +7472,7 @@
         <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7455,7 +7480,7 @@
         <v>214</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7463,7 +7488,7 @@
         <v>222</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7471,7 +7496,7 @@
         <v>249</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7479,7 +7504,7 @@
         <v>279</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7487,7 +7512,7 @@
         <v>297</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7495,7 +7520,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7503,7 +7528,7 @@
         <v>309</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7511,7 +7536,7 @@
         <v>348</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7519,7 +7544,7 @@
         <v>350</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7527,7 +7552,7 @@
         <v>361</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7535,7 +7560,7 @@
         <v>370</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7543,7 +7568,7 @@
         <v>379</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7551,7 +7576,7 @@
         <v>423</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7559,7 +7584,7 @@
         <v>424</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
